--- a/CODE/report_2605_3.xlsx
+++ b/CODE/report_2605_3.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\CODE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B9935-6687-4CE0-87AD-DEEF1238D32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1110" yWindow="870" windowWidth="29010" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -229,12 +223,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,43 +244,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -309,58 +276,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -407,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,27 +371,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,24 +405,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -684,24 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -753,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>44279.166666666657</v>
+        <v>44279.16666666666</v>
       </c>
       <c r="G2" s="3">
         <v>44279.625</v>
@@ -770,11 +656,11 @@
       <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -791,7 +677,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="3">
-        <v>44279.166666666657</v>
+        <v>44279.16666666666</v>
       </c>
       <c r="G3" s="3">
         <v>44279.625</v>
@@ -808,467 +694,467 @@
       <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>44291</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="3">
         <v>44291.25</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>44291.6875</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
         <v>3.5</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>44291</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>44291.25</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>44291.6875</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5">
         <v>6.5</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>44291</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
-        <v>44292.145833333343</v>
-      </c>
-      <c r="G6" s="7">
-        <v>44292.791666666657</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="F6" s="3">
+        <v>44292.14583333334</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44292.79166666666</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>44291</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7">
-        <v>44292.145833333343</v>
-      </c>
-      <c r="G7" s="7">
-        <v>44292.791666666657</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="3">
+        <v>44292.14583333334</v>
+      </c>
+      <c r="G7" s="3">
+        <v>44292.79166666666</v>
+      </c>
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7">
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="2">
         <v>44291</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>44294.1875</v>
       </c>
-      <c r="G8" s="7">
-        <v>44294.833333333343</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3">
+        <v>44294.83333333334</v>
+      </c>
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="2">
         <v>44291</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>44294.1875</v>
       </c>
-      <c r="G9" s="7">
-        <v>44294.833333333343</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3">
+        <v>44294.83333333334</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="2">
         <v>44291</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>44295.1875</v>
       </c>
-      <c r="G10" s="7">
-        <v>44295.677083333343</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3">
+        <v>44295.67708333334</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>44291</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>44295.1875</v>
       </c>
-      <c r="G11" s="7">
-        <v>44295.677083333343</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3">
+        <v>44295.67708333334</v>
+      </c>
+      <c r="H11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11">
         <v>6.25</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11">
         <v>187.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="2">
         <v>44291</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>44296.1875</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>44296.625</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="2">
         <v>44291</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>44296.1875</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="3">
         <v>44296.625</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13">
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <v>44291</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>44297.1875</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>44297.625</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14">
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2">
         <v>44291</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>44297.1875</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>44297.625</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -1288,7 +1174,7 @@
         <v>44305.1875</v>
       </c>
       <c r="G16" s="3">
-        <v>44305.291666666657</v>
+        <v>44305.29166666666</v>
       </c>
       <c r="H16" t="s">
         <v>49</v>
@@ -1302,125 +1188,125 @@
       <c r="K16" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="2">
         <v>44291</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="7">
-        <v>44294.604166666657</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="3">
+        <v>44294.60416666666</v>
+      </c>
+      <c r="G17" s="3">
         <v>44294.75</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
         <v>3.5</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="2">
         <v>44291</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="7">
-        <v>44295.333333333343</v>
-      </c>
-      <c r="G18" s="7">
-        <v>44295.336805555547</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="3">
+        <v>44295.33333333334</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44295.33680555555</v>
+      </c>
+      <c r="H18" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="J18">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K18" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>21</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>44291</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="7">
-        <v>44296.333333333343</v>
-      </c>
-      <c r="G19" s="7">
-        <v>44296.336805555547</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="3">
+        <v>44296.33333333334</v>
+      </c>
+      <c r="G19" s="3">
+        <v>44296.33680555555</v>
+      </c>
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="J19">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K19" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>23</v>
       </c>
@@ -1437,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="3">
-        <v>44305.916666666657</v>
+        <v>44305.91666666666</v>
       </c>
       <c r="G20" s="3">
         <v>44306.125</v>
@@ -1458,7 +1344,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -1475,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="3">
-        <v>44310.916666666657</v>
+        <v>44310.91666666666</v>
       </c>
       <c r="G21" s="3">
         <v>44311</v>
@@ -1496,7 +1382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -1534,121 +1420,121 @@
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="2">
         <v>44312</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="7">
-        <v>44316.833333333343</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="3">
+        <v>44316.83333333334</v>
+      </c>
+      <c r="G23" s="3">
         <v>44317</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
         <v>31</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="2">
         <v>44312</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>44317</v>
       </c>
-      <c r="G24" s="7">
-        <v>44317.041666666657</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24" s="3">
+        <v>44317.04166666666</v>
+      </c>
+      <c r="H24" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
         <v>32</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="2">
         <v>44312</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="3">
         <v>44317.0625</v>
       </c>
-      <c r="G25" s="7">
-        <v>44317.145833333343</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="3">
+        <v>44317.14583333334</v>
+      </c>
+      <c r="H25" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="5">
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -1665,7 +1551,7 @@
         <v>29</v>
       </c>
       <c r="F26" s="3">
-        <v>44280.333333333343</v>
+        <v>44280.33333333334</v>
       </c>
       <c r="G26" s="3">
         <v>44280.625</v>
@@ -1686,7 +1572,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1703,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="F27" s="3">
-        <v>44280.333333333343</v>
+        <v>44280.33333333334</v>
       </c>
       <c r="G27" s="3">
         <v>44280.625</v>
@@ -1724,125 +1610,121 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="2">
         <v>44291</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="7">
-        <v>44293.145833333343</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="3">
+        <v>44293.14583333334</v>
+      </c>
+      <c r="G28" s="3">
         <v>44293.75</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" s="5">
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28">
         <v>6</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="2">
         <v>44291</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="7">
-        <v>44293.145833333343</v>
-      </c>
-      <c r="G29" s="7">
+      <c r="F29" s="3">
+        <v>44293.14583333334</v>
+      </c>
+      <c r="G29" s="3">
         <v>44293.75</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29" s="5">
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29">
         <v>8</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
         <v>22</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="2">
         <v>44291</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="7">
-        <v>44297.333333333343</v>
-      </c>
-      <c r="G30" s="7">
-        <v>44297.336805555547</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="F30" s="3">
+        <v>44297.33333333334</v>
+      </c>
+      <c r="G30" s="3">
+        <v>44297.33680555555</v>
+      </c>
+      <c r="H30" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K30" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30">
         <v>132</v>
       </c>
-      <c r="M30" s="5">
-        <f>20*(3*2.2)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>26</v>
       </c>
@@ -1859,10 +1741,10 @@
         <v>32</v>
       </c>
       <c r="F31" s="3">
-        <v>44311.916666666657</v>
+        <v>44311.91666666666</v>
       </c>
       <c r="G31" s="3">
-        <v>44311.958333333343</v>
+        <v>44311.95833333334</v>
       </c>
       <c r="H31" t="s">
         <v>54</v>
@@ -1876,15 +1758,11 @@
       <c r="K31" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31">
         <v>50</v>
       </c>
-      <c r="M31">
-        <f>20*(1*2.5)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>27</v>
       </c>
@@ -1901,10 +1779,10 @@
         <v>46</v>
       </c>
       <c r="F32" s="3">
-        <v>44312.041666666657</v>
+        <v>44312.04166666666</v>
       </c>
       <c r="G32" s="3">
-        <v>44312.104166666657</v>
+        <v>44312.10416666666</v>
       </c>
       <c r="H32" t="s">
         <v>49</v>
@@ -1918,91 +1796,87 @@
       <c r="K32" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32">
         <v>58</v>
       </c>
-      <c r="M32">
-        <f>20*(2*1.45)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
         <v>28</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="2">
         <v>44312</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>44314.625</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>44315.1875</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="5">
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33">
         <v>6</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" t="s">
         <v>60</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
         <v>29</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="2">
         <v>44312</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="3">
         <v>44314.625</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="3">
         <v>44315.1875</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="5">
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" t="s">
         <v>60</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2019,7 +1893,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="3">
-        <v>44319.291666666657</v>
+        <v>44319.29166666666</v>
       </c>
       <c r="G35" s="3">
         <v>44319.5</v>

--- a/CODE/report_2605_3.xlsx
+++ b/CODE/report_2605_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -22,33 +22,45 @@
     <t>Start Period</t>
   </si>
   <si>
+    <t>End Period</t>
+  </si>
+  <si>
     <t>Parent ID</t>
   </si>
   <si>
     <t>Object ID</t>
   </si>
   <si>
+    <t>Shift Start</t>
+  </si>
+  <si>
+    <t>Shift End</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>TransactionTypeName</t>
+  </si>
+  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Hour</t>
+    <t>Amount</t>
   </si>
   <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>Pay</t>
-  </si>
-  <si>
     <t>Aaron Edwards</t>
   </si>
   <si>
@@ -160,64 +172,25 @@
     <t>85209F89-D83B-4FB2-A4C9-F26071B13425</t>
   </si>
   <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
+    <t>parttime</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>fulltime</t>
+  </si>
+  <si>
+    <t>Night shift</t>
+  </si>
+  <si>
+    <t>Day shift</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <t>parttime</t>
-  </si>
-  <si>
-    <t>casual</t>
-  </si>
-  <si>
-    <t>fulltime</t>
-  </si>
-  <si>
-    <t>(1.25, 1.5, 2.0, 2)</t>
-  </si>
-  <si>
-    <t>(1.2, 1.7, 2.2, 0)</t>
-  </si>
-  <si>
-    <t>(1.45, 1.7, 2.2, 2)</t>
-  </si>
-  <si>
-    <t>(1.7, 1.7, 2.2, 2)</t>
-  </si>
-  <si>
-    <t>(2.2, 2.2, 2.2, 2)</t>
-  </si>
-  <si>
-    <t>(1.0, 1.5, 2.0, 0)</t>
-  </si>
-  <si>
-    <t>(1.5, 1.5, 2.0, 0)</t>
-  </si>
-  <si>
-    <t>(1.7, 1.7, 2.2, 1)</t>
-  </si>
-  <si>
-    <t>(2.5, 2.5, 2.5, 2)</t>
-  </si>
-  <si>
-    <t>(2.2, 2.2, 2.2, 0)</t>
   </si>
 </sst>
 </file>
@@ -581,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,1297 +594,1717 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>44277</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="D2" s="2">
+        <v>44283</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3">
         <v>44279.16666666666</v>
       </c>
-      <c r="G2" s="3">
-        <v>44279.625</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
+      <c r="H2" s="3">
+        <v>44279.5</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
+        <v>1.25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44279.16666666666</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44279.625</v>
+      </c>
+      <c r="O2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="P2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>44277</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="2">
+        <v>44283</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="3">
-        <v>44279.16666666666</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="3">
+        <v>44279.54166666666</v>
+      </c>
+      <c r="H3" s="3">
         <v>44279.625</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
+        <v>1.25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="3">
+        <v>44279.16666666666</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44279.625</v>
+      </c>
+      <c r="O3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>44291</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4" s="2">
+        <v>44297</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
         <v>44291.25</v>
       </c>
-      <c r="G4" s="3">
-        <v>44291.6875</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
+      <c r="H4" s="3">
+        <v>44291.39583333334</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>3.5</v>
       </c>
-      <c r="K4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
+        <v>1.2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44291.25</v>
+      </c>
+      <c r="N4" s="3">
+        <v>44291.6875</v>
+      </c>
+      <c r="O4">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="P4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>44291</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5" s="2">
+        <v>44297</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="3">
-        <v>44291.25</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="3">
+        <v>44291.41666666666</v>
+      </c>
+      <c r="H5" s="3">
         <v>44291.6875</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>6.5</v>
       </c>
-      <c r="K5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
+        <v>1.2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="3">
+        <v>44291.25</v>
+      </c>
+      <c r="N5" s="3">
+        <v>44291.6875</v>
+      </c>
+      <c r="O5">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="P5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>44291</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="D6" s="2">
+        <v>44297</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="3">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3">
         <v>44292.14583333334</v>
       </c>
-      <c r="G6" s="3">
-        <v>44292.79166666666</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
+      <c r="H6" s="3">
+        <v>44292.39583333334</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
+        <v>1.45</v>
+      </c>
+      <c r="L6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3">
+        <v>44292.14583333334</v>
+      </c>
+      <c r="N6" s="3">
+        <v>44292.79166666666</v>
+      </c>
+      <c r="O6">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="P6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>44291</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
+      <c r="D7" s="2">
+        <v>44297</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44292.14583333334</v>
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="3">
+        <v>44292.41666666666</v>
+      </c>
+      <c r="H7" s="3">
         <v>44292.79166666666</v>
       </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7">
+      <c r="K7">
+        <v>1.45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44292.14583333334</v>
+      </c>
+      <c r="N7" s="3">
+        <v>44292.79166666666</v>
+      </c>
+      <c r="O7">
         <v>316</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="P7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>44291</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
+      <c r="D8" s="2">
+        <v>44297</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3">
         <v>44294.1875</v>
       </c>
-      <c r="G8" s="3">
-        <v>44294.83333333334</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
+      <c r="H8" s="3">
+        <v>44294.39583333334</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8">
+      <c r="K8">
+        <v>1.25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="3">
+        <v>44294.1875</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44294.83333333334</v>
+      </c>
+      <c r="O8">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="P8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>44291</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
+      <c r="D9" s="2">
+        <v>44297</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="3">
-        <v>44294.1875</v>
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="3">
+        <v>44294.41666666666</v>
+      </c>
+      <c r="H9" s="3">
         <v>44294.83333333334</v>
       </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9">
+      <c r="K9">
+        <v>1.25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="3">
+        <v>44294.1875</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44294.83333333334</v>
+      </c>
+      <c r="O9">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="P9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>44291</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
+      <c r="D10" s="2">
+        <v>44297</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3">
         <v>44295.1875</v>
       </c>
-      <c r="G10" s="3">
-        <v>44295.67708333334</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
+      <c r="H10" s="3">
+        <v>44295.39583333334</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10">
+      <c r="K10">
+        <v>1.45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="3">
+        <v>44295.1875</v>
+      </c>
+      <c r="N10" s="3">
+        <v>44295.67708333334</v>
+      </c>
+      <c r="O10">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="P10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>44291</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
+      <c r="D11" s="2">
+        <v>44297</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44295.1875</v>
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
       <c r="G11" s="3">
+        <v>44295.41666666666</v>
+      </c>
+      <c r="H11" s="3">
         <v>44295.67708333334</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>6.25</v>
       </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11">
+      <c r="K11">
+        <v>1.45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44295.1875</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44295.67708333334</v>
+      </c>
+      <c r="O11">
         <v>187.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="P11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>44291</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
+      <c r="D12" s="2">
+        <v>44297</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
         <v>44296.1875</v>
       </c>
-      <c r="G12" s="3">
-        <v>44296.625</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
+      <c r="H12" s="3">
+        <v>44296.39583333334</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12">
+      <c r="K12">
+        <v>1.7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44296.1875</v>
+      </c>
+      <c r="N12" s="3">
+        <v>44296.625</v>
+      </c>
+      <c r="O12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="P12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>44291</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
+      <c r="D13" s="2">
+        <v>44297</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="3">
-        <v>44296.1875</v>
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
       </c>
       <c r="G13" s="3">
+        <v>44296.41666666666</v>
+      </c>
+      <c r="H13" s="3">
         <v>44296.625</v>
       </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13">
+      <c r="K13">
+        <v>1.7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44296.1875</v>
+      </c>
+      <c r="N13" s="3">
+        <v>44296.625</v>
+      </c>
+      <c r="O13">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="P13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>44291</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
+      <c r="D14" s="2">
+        <v>44297</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="3">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3">
         <v>44297.1875</v>
       </c>
-      <c r="G14" s="3">
-        <v>44297.625</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
+      <c r="H14" s="3">
+        <v>44297.39583333334</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14">
+      <c r="K14">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="3">
+        <v>44297.1875</v>
+      </c>
+      <c r="N14" s="3">
+        <v>44297.625</v>
+      </c>
+      <c r="O14">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>44291</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
+      <c r="D15" s="2">
+        <v>44297</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="3">
-        <v>44297.1875</v>
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="3">
+        <v>44297.41666666666</v>
+      </c>
+      <c r="H15" s="3">
         <v>44297.625</v>
       </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15">
+      <c r="K15">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="3">
+        <v>44297.1875</v>
+      </c>
+      <c r="N15" s="3">
+        <v>44297.625</v>
+      </c>
+      <c r="O15">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="P15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>44305</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
+      <c r="D16" s="2">
+        <v>44311</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3">
         <v>44305.1875</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>44305.29166666666</v>
       </c>
-      <c r="H16" t="s">
-        <v>49</v>
-      </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>2.5</v>
       </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16">
+      <c r="K16">
+        <v>1.45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="3">
+        <v>44305.1875</v>
+      </c>
+      <c r="N16" s="3">
+        <v>44305.29166666666</v>
+      </c>
+      <c r="O16">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>44291</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
+      <c r="D17" s="2">
+        <v>44297</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="3">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
         <v>44294.60416666666</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>44294.75</v>
       </c>
-      <c r="H17" t="s">
-        <v>51</v>
-      </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J17">
         <v>3.5</v>
       </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17">
+      <c r="K17">
+        <v>1.2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="3">
+        <v>44294.60416666666</v>
+      </c>
+      <c r="N17" s="3">
+        <v>44294.75</v>
+      </c>
+      <c r="O17">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>44291</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
+      <c r="D18" s="2">
+        <v>44297</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3">
         <v>44295.33333333334</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44295.33680555555</v>
       </c>
-      <c r="H18" t="s">
-        <v>52</v>
-      </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>0.08333333333333333</v>
       </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="3">
+        <v>44295.33333333334</v>
+      </c>
+      <c r="N18" s="3">
+        <v>44295.33680555555</v>
+      </c>
+      <c r="O18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
         <v>44291</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
+      <c r="D19" s="2">
+        <v>44297</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3">
         <v>44296.33333333334</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>44296.33680555555</v>
       </c>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J19">
         <v>0.08333333333333333</v>
       </c>
-      <c r="K19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19">
+      <c r="K19">
+        <v>1.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="3">
+        <v>44296.33333333334</v>
+      </c>
+      <c r="N19" s="3">
+        <v>44296.33680555555</v>
+      </c>
+      <c r="O19">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>44305</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
+      <c r="D20" s="2">
+        <v>44311</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="3">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3">
         <v>44305.91666666666</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>44306.125</v>
       </c>
-      <c r="H20" t="s">
-        <v>49</v>
-      </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
-      <c r="K20" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20">
+      <c r="K20">
+        <v>1.45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="3">
+        <v>44305.91666666666</v>
+      </c>
+      <c r="N20" s="3">
+        <v>44306.125</v>
+      </c>
+      <c r="O20">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>44305</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
+      <c r="D21" s="2">
+        <v>44311</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="3">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3">
         <v>44310.91666666666</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>44311</v>
       </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
       <c r="I21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21">
+      <c r="K21">
+        <v>1.7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="3">
+        <v>44310.91666666666</v>
+      </c>
+      <c r="N21" s="3">
+        <v>44311</v>
+      </c>
+      <c r="O21">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <v>44305</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
+      <c r="D22" s="2">
+        <v>44311</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="3">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="3">
         <v>44311</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44311.5</v>
       </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
       <c r="I22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>12</v>
       </c>
-      <c r="K22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22">
+      <c r="K22">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="3">
+        <v>44311</v>
+      </c>
+      <c r="N22" s="3">
+        <v>44311.5</v>
+      </c>
+      <c r="O22">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <v>44312</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
+      <c r="D23" s="2">
+        <v>44318</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3">
         <v>44316.83333333334</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44317</v>
       </c>
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23">
+      <c r="K23">
+        <v>2.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="3">
+        <v>44316.83333333334</v>
+      </c>
+      <c r="N23" s="3">
+        <v>44317</v>
+      </c>
+      <c r="O23">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
         <v>44312</v>
       </c>
-      <c r="D24" t="s">
-        <v>28</v>
+      <c r="D24" s="2">
+        <v>44318</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="3">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3">
         <v>44317</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44317.04166666666</v>
       </c>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24">
+      <c r="K24">
+        <v>1.7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="3">
+        <v>44317</v>
+      </c>
+      <c r="N24" s="3">
+        <v>44317.04166666666</v>
+      </c>
+      <c r="O24">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="P24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>44312</v>
       </c>
-      <c r="D25" t="s">
-        <v>28</v>
+      <c r="D25" s="2">
+        <v>44318</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="3">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="3">
         <v>44317.0625</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>44317.14583333334</v>
       </c>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25">
+      <c r="K25">
+        <v>1.7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="3">
+        <v>44317.0625</v>
+      </c>
+      <c r="N25" s="3">
+        <v>44317.14583333334</v>
+      </c>
+      <c r="O25">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="P25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>44277</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
+      <c r="D26" s="2">
+        <v>44283</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3">
         <v>44280.33333333334</v>
       </c>
-      <c r="G26" s="3">
-        <v>44280.625</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
+      <c r="H26" s="3">
+        <v>44280.5</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26">
+      <c r="K26">
+        <v>1.2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="3">
+        <v>44280.33333333334</v>
+      </c>
+      <c r="N26" s="3">
+        <v>44280.625</v>
+      </c>
+      <c r="O26">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="P26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>44277</v>
       </c>
-      <c r="D27" t="s">
-        <v>29</v>
+      <c r="D27" s="2">
+        <v>44283</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44280.33333333334</v>
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
       </c>
       <c r="G27" s="3">
+        <v>44280.54166666666</v>
+      </c>
+      <c r="H27" s="3">
         <v>44280.625</v>
       </c>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
-      <c r="K27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27">
+      <c r="K27">
+        <v>1.2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="3">
+        <v>44280.33333333334</v>
+      </c>
+      <c r="N27" s="3">
+        <v>44280.625</v>
+      </c>
+      <c r="O27">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="P27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>44291</v>
       </c>
-      <c r="D28" t="s">
-        <v>30</v>
+      <c r="D28" s="2">
+        <v>44297</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="3">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="3">
         <v>44293.14583333334</v>
       </c>
-      <c r="G28" s="3">
-        <v>44293.75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
+      <c r="H28" s="3">
+        <v>44293.39583333334</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
-      <c r="K28" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28">
+      <c r="K28">
+        <v>1.45</v>
+      </c>
+      <c r="L28" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="3">
+        <v>44293.14583333334</v>
+      </c>
+      <c r="N28" s="3">
+        <v>44293.75</v>
+      </c>
+      <c r="O28">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="P28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>44291</v>
       </c>
-      <c r="D29" t="s">
-        <v>30</v>
+      <c r="D29" s="2">
+        <v>44297</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="3">
-        <v>44293.14583333334</v>
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
       </c>
       <c r="G29" s="3">
+        <v>44293.41666666666</v>
+      </c>
+      <c r="H29" s="3">
         <v>44293.75</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J29">
         <v>8</v>
       </c>
-      <c r="K29" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29">
+      <c r="K29">
+        <v>1.45</v>
+      </c>
+      <c r="L29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="3">
+        <v>44293.14583333334</v>
+      </c>
+      <c r="N29" s="3">
+        <v>44293.75</v>
+      </c>
+      <c r="O29">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="P29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>44291</v>
       </c>
-      <c r="D30" t="s">
-        <v>31</v>
+      <c r="D30" s="2">
+        <v>44297</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="3">
         <v>44297.33333333334</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>44297.33680555555</v>
       </c>
-      <c r="H30" t="s">
-        <v>54</v>
-      </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>0.08333333333333333</v>
       </c>
-      <c r="K30" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30">
+      <c r="K30">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="3">
+        <v>44297.33333333334</v>
+      </c>
+      <c r="N30" s="3">
+        <v>44297.33680555555</v>
+      </c>
+      <c r="O30">
         <v>132</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="P30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>44305</v>
       </c>
-      <c r="D31" t="s">
-        <v>32</v>
+      <c r="D31" s="2">
+        <v>44311</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="3">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3">
         <v>44311.91666666666</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>44311.95833333334</v>
       </c>
-      <c r="H31" t="s">
-        <v>54</v>
-      </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31">
+      <c r="K31">
+        <v>2.5</v>
+      </c>
+      <c r="L31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="3">
+        <v>44311.91666666666</v>
+      </c>
+      <c r="N31" s="3">
+        <v>44311.95833333334</v>
+      </c>
+      <c r="O31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="P31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>44305</v>
       </c>
-      <c r="D32" t="s">
-        <v>32</v>
+      <c r="D32" s="2">
+        <v>44311</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="3">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="3">
         <v>44312.04166666666</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>44312.10416666666</v>
       </c>
-      <c r="H32" t="s">
-        <v>49</v>
-      </c>
       <c r="I32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>1.5</v>
       </c>
-      <c r="K32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L32">
+      <c r="K32">
+        <v>1.45</v>
+      </c>
+      <c r="L32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="3">
+        <v>44312.04166666666</v>
+      </c>
+      <c r="N32" s="3">
+        <v>44312.10416666666</v>
+      </c>
+      <c r="O32">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="P32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>44312</v>
       </c>
-      <c r="D33" t="s">
-        <v>33</v>
+      <c r="D33" s="2">
+        <v>44318</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="3">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="3">
         <v>44314.625</v>
       </c>
-      <c r="G33" s="3">
-        <v>44315.1875</v>
-      </c>
-      <c r="H33" t="s">
-        <v>48</v>
+      <c r="H33" s="3">
+        <v>44314.875</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>6</v>
       </c>
-      <c r="K33" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33">
+      <c r="K33">
+        <v>1.45</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="3">
+        <v>44314.625</v>
+      </c>
+      <c r="N33" s="3">
+        <v>44315.1875</v>
+      </c>
+      <c r="O33">
         <v>174</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="P33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>44312</v>
       </c>
-      <c r="D34" t="s">
-        <v>33</v>
+      <c r="D34" s="2">
+        <v>44318</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="3">
-        <v>44314.625</v>
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
       </c>
       <c r="G34" s="3">
+        <v>44314.9375</v>
+      </c>
+      <c r="H34" s="3">
         <v>44315.1875</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J34">
         <v>6</v>
       </c>
-      <c r="K34" t="s">
-        <v>60</v>
-      </c>
-      <c r="L34">
+      <c r="K34">
+        <v>1.45</v>
+      </c>
+      <c r="L34" t="s">
+        <v>55</v>
+      </c>
+      <c r="M34" s="3">
+        <v>44314.625</v>
+      </c>
+      <c r="N34" s="3">
+        <v>44315.1875</v>
+      </c>
+      <c r="O34">
         <v>184</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="P34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
         <v>44319</v>
       </c>
-      <c r="D35" t="s">
-        <v>34</v>
+      <c r="D35" s="2">
+        <v>44325</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="3">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="3">
         <v>44319.29166666666</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>44319.5</v>
       </c>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
-      <c r="K35" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35">
+      <c r="K35">
+        <v>1.2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>56</v>
+      </c>
+      <c r="M35" s="3">
+        <v>44319.29166666666</v>
+      </c>
+      <c r="N35" s="3">
+        <v>44319.5</v>
+      </c>
+      <c r="O35">
         <v>120</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
